--- a/Daily Inventory/uploads/final_combined_report_with_stock_difference.xlsx
+++ b/Daily Inventory/uploads/final_combined_report_with_stock_difference.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J180"/>
+  <dimension ref="A1:K180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,25 +461,30 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Product Name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Opening Stock</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Issuance Stock</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Physical Stock</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Total Quantity Sold</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Stock Difference</t>
         </is>
@@ -506,10 +511,11 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -532,10 +538,11 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -558,10 +565,11 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -584,10 +592,11 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -610,10 +619,11 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -636,10 +646,11 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -662,10 +673,11 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -688,10 +700,11 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -711,19 +724,24 @@
       <c r="E10" t="n">
         <v>2</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Khayyam Special BBQ Platter - Half</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>100</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>10</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>85</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>4</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>81</v>
       </c>
     </row>
@@ -745,19 +763,24 @@
       <c r="E11" t="n">
         <v>4</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7Up - Tin Pack Diet</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>100</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>10</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>85</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>4</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>81</v>
       </c>
     </row>
@@ -779,19 +802,24 @@
       <c r="E12" t="n">
         <v>453</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tandoori Roti - -</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>100</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>10</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>85</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>519</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>-434</v>
       </c>
     </row>
@@ -813,19 +841,24 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Chicken Green Chilli With Lemon - Half</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>100</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>10</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>85</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
       <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
         <v>84</v>
       </c>
     </row>
@@ -847,19 +880,24 @@
       <c r="E14" t="n">
         <v>1</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Stuffed Crust Pizza - Medium</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>100</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>10</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>85</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
       <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
         <v>84</v>
       </c>
     </row>
@@ -881,19 +919,24 @@
       <c r="E15" t="n">
         <v>178</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7Up - Tin Pack</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>100</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>10</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>85</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>318</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>-233</v>
       </c>
     </row>
@@ -915,19 +958,24 @@
       <c r="E16" t="n">
         <v>1</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7Up - Ltr</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>100</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>10</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>85</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
       <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
         <v>84</v>
       </c>
     </row>
@@ -949,19 +997,24 @@
       <c r="E17" t="n">
         <v>3</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Khayyam Special Pizza - Medium</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>100</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>10</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>85</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>4</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>81</v>
       </c>
     </row>
@@ -983,19 +1036,24 @@
       <c r="E18" t="n">
         <v>2</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Peshawri Chicken Karahi - Half</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>100</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>10</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>85</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>4</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>81</v>
       </c>
     </row>
@@ -1017,13 +1075,26 @@
       <c r="E19" t="n">
         <v>3</v>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Hot &amp; Sour Soup - Half</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>100</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
       <c r="I19" t="n">
+        <v>85</v>
+      </c>
+      <c r="J19" t="n">
         <v>5</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1043,13 +1114,26 @@
       <c r="E20" t="n">
         <v>10</v>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Chicken Karahi - Half</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>100</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
       <c r="I20" t="n">
+        <v>85</v>
+      </c>
+      <c r="J20" t="n">
         <v>26</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1069,13 +1153,26 @@
       <c r="E21" t="n">
         <v>2</v>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Chicken Afghani Karahi - Half</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>100</v>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
       <c r="I21" t="n">
+        <v>85</v>
+      </c>
+      <c r="J21" t="n">
         <v>5</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1095,13 +1192,26 @@
       <c r="E22" t="n">
         <v>3</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Chicken Achari Karahi - Half</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>100</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
       <c r="I22" t="n">
+        <v>85</v>
+      </c>
+      <c r="J22" t="n">
         <v>3</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1121,13 +1231,26 @@
       <c r="E23" t="n">
         <v>1</v>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Chicken Bombay Handi - Half</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>100</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1150,10 +1273,11 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
         <v>4</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1176,10 +1300,11 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1202,10 +1327,11 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
         <v>5</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1228,10 +1354,11 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
         <v>6</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1254,10 +1381,11 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1280,10 +1408,11 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
-        <v>2</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1306,10 +1435,11 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1332,10 +1462,11 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1358,10 +1489,11 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1384,10 +1516,11 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
         <v>21</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1410,10 +1543,11 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
         <v>9</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1436,10 +1570,11 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
         <v>109</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1462,10 +1597,11 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="n">
-        <v>2</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1488,10 +1624,11 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
         <v>4</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1514,10 +1651,11 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="n">
-        <v>2</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1540,10 +1678,11 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
         <v>3</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1566,10 +1705,11 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1592,10 +1732,11 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
         <v>4</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1618,10 +1759,11 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
         <v>7</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1644,10 +1786,11 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
         <v>8</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1670,10 +1813,11 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1696,10 +1840,11 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
         <v>9</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1722,10 +1867,11 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="n">
-        <v>2</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1748,10 +1894,11 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
         <v>248</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1774,10 +1921,11 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
         <v>307</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1800,10 +1948,11 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
         <v>45</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1826,10 +1975,11 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1852,10 +2002,11 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
         <v>23</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1878,10 +2029,11 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
         <v>14</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1904,10 +2056,11 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
         <v>3</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1930,10 +2083,11 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="n">
-        <v>2</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>2</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1956,10 +2110,11 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="n">
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
         <v>46</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1982,10 +2137,11 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
         <v>3</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2008,10 +2164,11 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
         <v>54</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2034,10 +2191,11 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
         <v>66</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2060,10 +2218,11 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
         <v>105</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2086,10 +2245,11 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
         <v>21</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2112,10 +2272,11 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2138,10 +2299,11 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="n">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
         <v>107</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2164,10 +2326,11 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
         <v>6</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2190,10 +2353,11 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>2</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2216,10 +2380,11 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="n">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
         <v>3</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2242,10 +2407,11 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="n">
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
         <v>13</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2268,10 +2434,11 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>2</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2294,10 +2461,11 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>2</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2320,10 +2488,11 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="n">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
         <v>3</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2346,10 +2515,11 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2372,10 +2542,11 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2398,10 +2569,11 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="n">
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
         <v>8</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2424,10 +2596,11 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="n">
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
         <v>61</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2450,10 +2623,11 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="n">
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
         <v>147</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2476,10 +2650,11 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="n">
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
         <v>109</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2502,10 +2677,11 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="n">
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
         <v>226</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2528,10 +2704,11 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>2</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2554,10 +2731,11 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="n">
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
         <v>4</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2580,10 +2758,11 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="n">
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
         <v>47</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2606,10 +2785,11 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="n">
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
         <v>3</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2632,10 +2812,11 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="n">
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
         <v>4</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2658,10 +2839,11 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="n">
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
         <v>11</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2684,10 +2866,11 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="n">
-        <v>2</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>2</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2710,10 +2893,11 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" t="n">
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
         <v>3</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2736,10 +2920,11 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="n">
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
         <v>3</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2762,10 +2947,11 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="n">
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
         <v>4</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2788,10 +2974,11 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="n">
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
         <v>4</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2814,10 +3001,11 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="n">
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
         <v>3</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2840,10 +3028,11 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="n">
-        <v>2</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>2</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2866,10 +3055,11 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="n">
-        <v>2</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>2</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2892,10 +3082,11 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>2</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2918,10 +3109,11 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2944,10 +3136,11 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2970,10 +3163,11 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
-      <c r="I94" t="n">
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
         <v>6</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2996,10 +3190,11 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
-      <c r="I95" t="n">
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
         <v>61</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3022,10 +3217,11 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3048,10 +3244,11 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3074,10 +3271,11 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
-      <c r="I98" t="n">
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
         <v>3</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3100,10 +3298,11 @@
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3126,10 +3325,11 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="n">
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
         <v>4</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3152,10 +3352,11 @@
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
-      <c r="I101" t="n">
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
         <v>6</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3178,10 +3379,11 @@
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3204,10 +3406,11 @@
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3230,10 +3433,11 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3256,10 +3460,11 @@
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="n">
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
         <v>10</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3282,10 +3487,11 @@
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3308,10 +3514,11 @@
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
-      <c r="I107" t="n">
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
         <v>6</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3334,10 +3541,11 @@
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3360,10 +3568,11 @@
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
-      <c r="I109" t="n">
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
         <v>17</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3386,10 +3595,11 @@
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
-      <c r="I110" t="n">
-        <v>2</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>2</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3412,10 +3622,11 @@
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
-      <c r="I111" t="n">
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
         <v>4</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3438,10 +3649,11 @@
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
-      <c r="I112" t="n">
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
         <v>31</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3464,10 +3676,11 @@
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
-      <c r="I113" t="n">
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
         <v>6</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3490,10 +3703,11 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
-      <c r="I114" t="n">
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
         <v>3</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3516,10 +3730,11 @@
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
-      <c r="I115" t="n">
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
         <v>92</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3542,10 +3757,11 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
-      <c r="I116" t="n">
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
         <v>9</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3568,10 +3784,11 @@
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3594,10 +3811,11 @@
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
-      <c r="I118" t="n">
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
         <v>31</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3620,10 +3838,11 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
-      <c r="I119" t="n">
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
         <v>6</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3646,10 +3865,11 @@
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3672,10 +3892,11 @@
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
-      <c r="I121" t="n">
-        <v>2</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>2</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3698,10 +3919,11 @@
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
-      <c r="I122" t="n">
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
         <v>9</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3724,10 +3946,11 @@
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3750,10 +3973,11 @@
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
-      <c r="I124" t="n">
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
         <v>2240</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3776,10 +4000,11 @@
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
-      <c r="I125" t="n">
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
         <v>7</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3802,10 +4027,11 @@
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
-      <c r="I126" t="n">
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
         <v>7</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3828,10 +4054,11 @@
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3854,10 +4081,11 @@
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
-      <c r="I128" t="n">
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
         <v>3</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3880,10 +4108,11 @@
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
-      <c r="I129" t="n">
-        <v>2</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>2</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3906,10 +4135,11 @@
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3932,10 +4162,11 @@
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
-      <c r="I131" t="n">
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
         <v>3</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3958,10 +4189,11 @@
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3984,10 +4216,11 @@
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
-      <c r="I133" t="n">
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
         <v>12</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4010,10 +4243,11 @@
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
-      <c r="I134" t="n">
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
         <v>5</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4036,10 +4270,11 @@
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
-      <c r="I135" t="n">
-        <v>2</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>2</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -4062,10 +4297,11 @@
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -4088,10 +4324,11 @@
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
-      <c r="I137" t="n">
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
         <v>9</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4114,10 +4351,11 @@
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4140,10 +4378,11 @@
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -4166,10 +4405,11 @@
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
-      <c r="I140" t="n">
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
         <v>3</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -4192,10 +4432,11 @@
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
-      <c r="I141" t="n">
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
         <v>30</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -4218,10 +4459,11 @@
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
-      <c r="I142" t="n">
-        <v>2</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>2</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -4244,10 +4486,11 @@
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
-      <c r="I143" t="n">
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
         <v>6</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4270,10 +4513,11 @@
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
-      <c r="I144" t="n">
-        <v>2</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>2</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4296,10 +4540,11 @@
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -4322,10 +4567,11 @@
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
-      <c r="I146" t="n">
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
         <v>11</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -4348,10 +4594,11 @@
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
-      <c r="I147" t="n">
-        <v>2</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>2</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -4374,10 +4621,11 @@
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
-      <c r="I148" t="n">
-        <v>2</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>2</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -4400,10 +4648,11 @@
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
-      <c r="I149" t="n">
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
         <v>3</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4426,10 +4675,11 @@
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -4452,10 +4702,11 @@
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -4478,10 +4729,11 @@
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -4504,10 +4756,11 @@
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
-      <c r="I153" t="n">
-        <v>2</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>2</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -4530,10 +4783,11 @@
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
-      <c r="I154" t="n">
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
         <v>3</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -4556,10 +4810,11 @@
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
-      <c r="I155" t="n">
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
         <v>42</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4582,10 +4837,11 @@
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4608,10 +4864,11 @@
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
-      <c r="I157" t="n">
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
         <v>8</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4634,10 +4891,11 @@
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4660,10 +4918,11 @@
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
-      <c r="I159" t="n">
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
         <v>23</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4686,10 +4945,11 @@
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
-      <c r="I160" t="n">
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
         <v>21</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4712,10 +4972,11 @@
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
-      <c r="I161" t="n">
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
         <v>4</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4738,10 +4999,11 @@
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
-      <c r="I162" t="n">
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
         <v>142</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4764,10 +5026,11 @@
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
-      <c r="I163" t="n">
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
         <v>19</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4790,10 +5053,11 @@
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4816,10 +5080,11 @@
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4842,10 +5107,11 @@
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4868,10 +5134,11 @@
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4894,10 +5161,11 @@
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4920,10 +5188,11 @@
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4946,10 +5215,11 @@
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4972,10 +5242,11 @@
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4998,10 +5269,11 @@
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -5024,10 +5296,11 @@
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -5050,10 +5323,11 @@
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -5076,10 +5350,11 @@
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -5102,10 +5377,11 @@
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -5128,10 +5404,11 @@
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -5154,10 +5431,11 @@
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -5180,10 +5458,11 @@
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -5206,10 +5485,11 @@
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
